--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/cswb.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/CrepeErase/cswb.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23706"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{57B28878-2DD8-4185-B179-AD5FA46493F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F551750-A817-4305-90A9-2763855DCED6}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{57B28878-2DD8-4185-B179-AD5FA46493F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B0275F06-5580-4865-AB7E-313A2BE45B33}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1002,9 +1002,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1350,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1561,13 +1558,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="2" t="s">
@@ -1890,17 +1887,17 @@
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="44">
-        <v>56.61</v>
-      </c>
-      <c r="C37" s="44">
-        <v>36.61</v>
-      </c>
-      <c r="D37" s="44">
-        <v>56.61</v>
-      </c>
-      <c r="E37" s="44">
-        <v>36.61</v>
+      <c r="B37" s="10">
+        <v>49.95</v>
+      </c>
+      <c r="C37" s="10">
+        <v>29.95</v>
+      </c>
+      <c r="D37" s="10">
+        <v>49.95</v>
+      </c>
+      <c r="E37" s="10">
+        <v>29.95</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
@@ -1964,10 +1961,10 @@
       <c r="C41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="44" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1981,10 +1978,10 @@
       <c r="C42" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="44" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1994,8 +1991,8 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="1:5" ht="31.5">
       <c r="A44" s="2" t="s">
@@ -2213,13 +2210,13 @@
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="15.75">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="53"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="52"/>
     </row>
     <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="4" t="s">
@@ -2628,10 +2625,10 @@
     </row>
     <row r="105" spans="1:5" ht="15.75">
       <c r="A105" s="8"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="46"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
     </row>
     <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="8" t="s">
@@ -2656,21 +2653,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2835,8 +2817,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE8D63D-2E81-4339-837F-7F18C9494163}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59656202-A0B0-43EC-AE8C-F4D1B807D10E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2844,5 +2841,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59656202-A0B0-43EC-AE8C-F4D1B807D10E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE8D63D-2E81-4339-837F-7F18C9494163}"/>
 </file>